--- a/output/IBIUNA_29732926000153.xlsx
+++ b/output/IBIUNA_29732926000153.xlsx
@@ -746,10 +746,10 @@
         <v>44165</v>
       </c>
       <c r="B33">
-        <v>0.14669537</v>
+        <v>0.1490505559999999</v>
       </c>
       <c r="C33">
-        <v>-0.005179540147100758</v>
+        <v>-0.003136288485973804</v>
       </c>
     </row>
   </sheetData>

--- a/output/IBIUNA_29732926000153.xlsx
+++ b/output/IBIUNA_29732926000153.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IBIUNA LONG SHORT ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,370 +383,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43220</v>
       </c>
       <c r="B2">
-        <v>0.02867369199999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43251</v>
       </c>
       <c r="B3">
-        <v>0.01895601200000008</v>
-      </c>
-      <c r="C3">
         <v>-0.009446805216828502</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43281</v>
       </c>
       <c r="B4">
-        <v>-0.005298949000000053</v>
-      </c>
-      <c r="C4">
         <v>-0.02380373707437344</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43312</v>
       </c>
       <c r="B5">
-        <v>0.000867202999999872</v>
-      </c>
-      <c r="C5">
         <v>0.006199000185835635</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43343</v>
       </c>
       <c r="B6">
-        <v>-0.03684184800000001</v>
-      </c>
-      <c r="C6">
         <v>-0.03767637793202805</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43373</v>
       </c>
       <c r="B7">
-        <v>-0.04856678599999997</v>
-      </c>
-      <c r="C7">
         <v>-0.01217342964460522</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43404</v>
       </c>
       <c r="B8">
-        <v>-0.01758179500000001</v>
-      </c>
-      <c r="C8">
         <v>0.03256664844580448</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43434</v>
       </c>
       <c r="B9">
-        <v>-0.01221773699999995</v>
-      </c>
-      <c r="C9">
         <v>0.005460055577858558</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43465</v>
       </c>
       <c r="B10">
-        <v>-0.01604303500000004</v>
-      </c>
-      <c r="C10">
         <v>-0.00387261256178284</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43496</v>
       </c>
       <c r="B11">
-        <v>0.006708675999999913</v>
-      </c>
-      <c r="C11">
         <v>0.02312266878460467</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43524</v>
       </c>
       <c r="B12">
-        <v>0.01982758000000007</v>
-      </c>
-      <c r="C12">
         <v>0.01303148002272714</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43555</v>
       </c>
       <c r="B13">
-        <v>0.01503873899999997</v>
-      </c>
-      <c r="C13">
         <v>-0.004695735920379862</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43585</v>
       </c>
       <c r="B14">
-        <v>0.000615948999999949</v>
-      </c>
-      <c r="C14">
         <v>-0.01420910300843214</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43616</v>
       </c>
       <c r="B15">
-        <v>0.001996149000000003</v>
-      </c>
-      <c r="C15">
         <v>0.001379350390506406</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43646</v>
       </c>
       <c r="B16">
-        <v>0.024676331</v>
-      </c>
-      <c r="C16">
         <v>0.02263499916904377</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43677</v>
       </c>
       <c r="B17">
-        <v>0.03734082599999988</v>
-      </c>
-      <c r="C17">
         <v>0.01235950769706995</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43708</v>
       </c>
       <c r="B18">
-        <v>0.06736883000000016</v>
-      </c>
-      <c r="C18">
         <v>0.02894709554215535</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43738</v>
       </c>
       <c r="B19">
-        <v>0.06459925200000005</v>
-      </c>
-      <c r="C19">
         <v>-0.002594771293818021</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43769</v>
       </c>
       <c r="B20">
-        <v>0.08847384999999997</v>
-      </c>
-      <c r="C20">
         <v>0.02242590153538826</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43799</v>
       </c>
       <c r="B21">
-        <v>0.112705995</v>
-      </c>
-      <c r="C21">
         <v>0.02226249624646481</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43830</v>
       </c>
       <c r="B22">
-        <v>0.138307086</v>
-      </c>
-      <c r="C22">
         <v>0.02300795638294373</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43861</v>
       </c>
       <c r="B23">
-        <v>0.1700532210000001</v>
-      </c>
-      <c r="C23">
         <v>0.02788890220437423</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43890</v>
       </c>
       <c r="B24">
-        <v>0.1630759209999999</v>
-      </c>
-      <c r="C24">
         <v>-0.00596323301775703</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43921</v>
       </c>
       <c r="B25">
-        <v>0.09090599600000004</v>
-      </c>
-      <c r="C25">
         <v>-0.06205091490325843</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43951</v>
       </c>
       <c r="B26">
-        <v>0.147492752</v>
-      </c>
-      <c r="C26">
         <v>0.05187134015899209</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43982</v>
       </c>
       <c r="B27">
-        <v>0.1393566149999999</v>
-      </c>
-      <c r="C27">
         <v>-0.007090360253534822</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44012</v>
       </c>
       <c r="B28">
-        <v>0.1670327620000001</v>
-      </c>
-      <c r="C28">
         <v>0.02429103112724729</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44043</v>
       </c>
       <c r="B29">
-        <v>0.163185653</v>
-      </c>
-      <c r="C29">
         <v>-0.00329648757538481</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44074</v>
       </c>
       <c r="B30">
-        <v>0.171558595</v>
-      </c>
-      <c r="C30">
         <v>0.007198285139096372</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44104</v>
       </c>
       <c r="B31">
-        <v>0.1728958380000001</v>
-      </c>
-      <c r="C31">
         <v>0.001141422209445686</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44135</v>
       </c>
       <c r="B32">
-        <v>0.1526656479999999</v>
-      </c>
-      <c r="C32">
         <v>-0.01724807041219989</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44165</v>
       </c>
       <c r="B33">
-        <v>0.1490505559999999</v>
-      </c>
-      <c r="C33">
-        <v>-0.003136288485973804</v>
+        <v>-0.003983311212550245</v>
       </c>
     </row>
   </sheetData>
